--- a/Code/Results/Cases/Case_4_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.23457481000719</v>
+        <v>19.49677774085708</v>
       </c>
       <c r="C2">
-        <v>10.37224176361019</v>
+        <v>8.006696187756392</v>
       </c>
       <c r="D2">
-        <v>6.950016191799032</v>
+        <v>6.067008707835074</v>
       </c>
       <c r="E2">
-        <v>5.119472438791157</v>
+        <v>8.626259165873787</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.136997883721715</v>
+        <v>3.761216909668637</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.29448128319445</v>
+        <v>37.00665040959698</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.91310797983805</v>
+        <v>17.73292023895231</v>
       </c>
       <c r="L2">
-        <v>7.597150019601045</v>
+        <v>10.82127092317198</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.08215988029738</v>
+        <v>24.88396329244865</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.22133380956955</v>
+        <v>19.32935816687735</v>
       </c>
       <c r="C3">
-        <v>9.69549262916161</v>
+        <v>7.797926514967203</v>
       </c>
       <c r="D3">
-        <v>6.454618486181289</v>
+        <v>5.962468258102314</v>
       </c>
       <c r="E3">
-        <v>5.071902512457149</v>
+        <v>8.639204754926084</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.14745276826501</v>
+        <v>3.764870437854596</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.67944389241642</v>
+        <v>36.93209736109324</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.08725558244723</v>
+        <v>17.60785762403586</v>
       </c>
       <c r="L3">
-        <v>7.383579640687445</v>
+        <v>10.81372361085618</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.08113429638744</v>
+        <v>24.89150680294505</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.58450191847191</v>
+        <v>19.23152864541431</v>
       </c>
       <c r="C4">
-        <v>9.265682307840008</v>
+        <v>7.669471581198842</v>
       </c>
       <c r="D4">
-        <v>6.182354509877852</v>
+        <v>5.899276222638383</v>
       </c>
       <c r="E4">
-        <v>5.045112417441541</v>
+        <v>8.648336106577288</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.154021760517157</v>
+        <v>3.767229672399893</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.31463932719362</v>
+        <v>36.89201518362711</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.57120259936231</v>
+        <v>17.53550469804664</v>
       </c>
       <c r="L4">
-        <v>7.255005176312657</v>
+        <v>10.81118369423664</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.08627305504253</v>
+        <v>24.89786352746364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.32154329322203</v>
+        <v>19.19295131514418</v>
       </c>
       <c r="C5">
-        <v>9.087000812263652</v>
+        <v>7.617143538751435</v>
       </c>
       <c r="D5">
-        <v>6.070757808778135</v>
+        <v>5.873811676034959</v>
       </c>
       <c r="E5">
-        <v>5.034794955382835</v>
+        <v>8.652354780387183</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.156738690927653</v>
+        <v>3.768220347385175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.16918724068591</v>
+        <v>36.87711855432887</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.35887067670464</v>
+        <v>17.50716184931671</v>
       </c>
       <c r="L5">
-        <v>7.203291242146689</v>
+        <v>10.81067609667224</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.08975273092135</v>
+        <v>24.90088736660482</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.27767979384517</v>
+        <v>19.18662454915604</v>
       </c>
       <c r="C6">
-        <v>9.057120195589226</v>
+        <v>7.608458195312032</v>
       </c>
       <c r="D6">
-        <v>6.052107413215425</v>
+        <v>5.869601676091388</v>
       </c>
       <c r="E6">
-        <v>5.033117720463155</v>
+        <v>8.653040055345333</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.157192318173867</v>
+        <v>3.76838661915145</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.14522834374809</v>
+        <v>36.87473192128057</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.32349758260582</v>
+        <v>17.50252520851809</v>
       </c>
       <c r="L6">
-        <v>7.194746477456551</v>
+        <v>10.81062368532181</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.09041239457229</v>
+        <v>24.90141563970197</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.58096913321428</v>
+        <v>19.23100310807154</v>
       </c>
       <c r="C7">
-        <v>9.263286732203802</v>
+        <v>7.668765676347943</v>
       </c>
       <c r="D7">
-        <v>6.180857571702779</v>
+        <v>5.898931590312362</v>
       </c>
       <c r="E7">
-        <v>5.044970855515717</v>
+        <v>8.648389098736363</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.154058236957057</v>
+        <v>3.767242914340293</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.31266473945999</v>
+        <v>36.89180845711666</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.56834693221743</v>
+        <v>17.53511780152862</v>
       </c>
       <c r="L7">
-        <v>7.254304934121455</v>
+        <v>10.81117471212938</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.08631445574728</v>
+        <v>24.89790255367391</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.88839077808738</v>
+        <v>19.43804544604204</v>
       </c>
       <c r="C8">
-        <v>10.14188869167178</v>
+        <v>7.934819017537318</v>
       </c>
       <c r="D8">
-        <v>6.782364575765238</v>
+        <v>6.030778198724686</v>
       </c>
       <c r="E8">
-        <v>5.10256352614497</v>
+        <v>8.630477444763834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.140573159132138</v>
+        <v>3.762452646582763</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.07974151138564</v>
+        <v>36.97976636443872</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.63033409376934</v>
+        <v>17.68889423470445</v>
       </c>
       <c r="L8">
-        <v>7.523001628987393</v>
+        <v>10.81823455804441</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.08056859068756</v>
+        <v>24.8862060797712</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.32786255132636</v>
+        <v>19.8815823254304</v>
       </c>
       <c r="C9">
-        <v>11.86969033043755</v>
+        <v>8.450805186543295</v>
       </c>
       <c r="D9">
-        <v>7.935924505089714</v>
+        <v>6.295636461799411</v>
       </c>
       <c r="E9">
-        <v>5.235062911471468</v>
+        <v>8.604728986235276</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.115198479169684</v>
+        <v>3.753973952035885</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.6869716461287</v>
+        <v>37.19714974540545</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.6345799183149</v>
+        <v>18.02440417090795</v>
       </c>
       <c r="L9">
-        <v>8.068776698175137</v>
+        <v>10.84864678242047</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.1182331020271</v>
+        <v>24.87697218102321</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.03832236345542</v>
+        <v>20.22765704658688</v>
       </c>
       <c r="C10">
-        <v>13.06353065974764</v>
+        <v>8.821872199680032</v>
       </c>
       <c r="D10">
-        <v>8.715053376691726</v>
+        <v>6.491953033422772</v>
       </c>
       <c r="E10">
-        <v>5.344880873001872</v>
+        <v>8.591516139161065</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.097025490839683</v>
+        <v>3.748295422338721</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.93326960764011</v>
+        <v>37.38380297191902</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.09127135970778</v>
+        <v>18.28981277681936</v>
       </c>
       <c r="L10">
-        <v>8.479804571017278</v>
+        <v>10.88100955207833</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.18053052051975</v>
+        <v>24.87856466934975</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.80226134295781</v>
+        <v>20.38888091379192</v>
       </c>
       <c r="C11">
-        <v>13.58813980894636</v>
+        <v>8.988076075180759</v>
       </c>
       <c r="D11">
-        <v>9.055724827445379</v>
+        <v>6.58120152784191</v>
       </c>
       <c r="E11">
-        <v>5.397680940290555</v>
+        <v>8.586740946662562</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.088813889186064</v>
+        <v>3.745830201122763</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.51543691265697</v>
+        <v>37.47445370564081</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.84570198012556</v>
+        <v>18.41424691458913</v>
       </c>
       <c r="L11">
-        <v>8.668835912381706</v>
+        <v>10.89788410470316</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.21758028758638</v>
+        <v>24.88111230661305</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.11855580886917</v>
+        <v>20.4504254127393</v>
       </c>
       <c r="C12">
-        <v>13.78430568447954</v>
+        <v>9.050575152996828</v>
       </c>
       <c r="D12">
-        <v>9.182849175306922</v>
+        <v>6.614954599779884</v>
       </c>
       <c r="E12">
-        <v>5.418096363102236</v>
+        <v>8.585110033472935</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.085707943798691</v>
+        <v>3.744913534450253</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.73819290614595</v>
+        <v>37.50959492534092</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.12744581434639</v>
+        <v>18.46186220994365</v>
       </c>
       <c r="L12">
-        <v>8.740714290654804</v>
+        <v>10.90458103980262</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.23297401212947</v>
+        <v>24.88233940742102</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05061756791088</v>
+        <v>20.43714964689871</v>
       </c>
       <c r="C13">
-        <v>13.74216582865349</v>
+        <v>9.037135354558892</v>
       </c>
       <c r="D13">
-        <v>9.155552639060955</v>
+        <v>6.607687747352678</v>
       </c>
       <c r="E13">
-        <v>5.413680586167641</v>
+        <v>8.585453397348582</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.086376779321374</v>
+        <v>3.745110206872133</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.69011384878785</v>
+        <v>37.50199064194185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.06693905882443</v>
+        <v>18.45158599728607</v>
       </c>
       <c r="L13">
-        <v>8.72522066585287</v>
+        <v>10.90312513031455</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.22959614359888</v>
+        <v>24.88206345797117</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.82836514063703</v>
+        <v>20.39393465092336</v>
       </c>
       <c r="C14">
-        <v>13.60432741712391</v>
+        <v>8.993227059971522</v>
       </c>
       <c r="D14">
-        <v>9.066220515033251</v>
+        <v>6.583979479738182</v>
       </c>
       <c r="E14">
-        <v>5.39935201047471</v>
+        <v>8.586603217968785</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.088558315712791</v>
+        <v>3.745754449122114</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.53371627200421</v>
+        <v>37.47732855741443</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.86895897028823</v>
+        <v>18.41815455257785</v>
       </c>
       <c r="L14">
-        <v>8.674743400528092</v>
+        <v>10.89842893083848</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.21881872651587</v>
+        <v>24.88120800181837</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.69897458636012</v>
+        <v>20.36752677893179</v>
       </c>
       <c r="C15">
-        <v>13.51957812243986</v>
+        <v>8.966272978428821</v>
       </c>
       <c r="D15">
-        <v>9.011260189906805</v>
+        <v>6.56945080891988</v>
       </c>
       <c r="E15">
-        <v>5.390630594479286</v>
+        <v>8.5873306028004</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.089894901445378</v>
+        <v>3.746151258548199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.43822198474229</v>
+        <v>37.46232792513214</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.7471834926395</v>
+        <v>18.39774014896477</v>
       </c>
       <c r="L15">
-        <v>8.643863451348901</v>
+        <v>10.89559225829011</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.212398356664</v>
+        <v>24.88071818282195</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.98828223595807</v>
+        <v>20.21719250297452</v>
       </c>
       <c r="C16">
-        <v>13.02888799804789</v>
+        <v>8.810952429879732</v>
       </c>
       <c r="D16">
-        <v>8.692520982263421</v>
+        <v>6.486116247515648</v>
       </c>
       <c r="E16">
-        <v>5.34148848830789</v>
+        <v>8.591853043747731</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.097562892554687</v>
+        <v>3.74845889523217</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.89553875794844</v>
+        <v>37.37799327357541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.04140416272309</v>
+        <v>18.28175198965133</v>
       </c>
       <c r="L16">
-        <v>8.467492054389606</v>
+        <v>10.87994985794332</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.17829375005038</v>
+        <v>24.87843488027868</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.54775201912364</v>
+        <v>20.12590131342788</v>
       </c>
       <c r="C17">
-        <v>12.72324360477129</v>
+        <v>8.714955103381218</v>
       </c>
       <c r="D17">
-        <v>8.493527505129697</v>
+        <v>6.434953130722381</v>
       </c>
       <c r="E17">
-        <v>5.312077816660557</v>
+        <v>8.594943627617109</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.102278206623276</v>
+        <v>3.749904695862694</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.56658822151327</v>
+        <v>37.32771907140199</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.64557683736556</v>
+        <v>18.2115182125168</v>
       </c>
       <c r="L17">
-        <v>8.359816691289911</v>
+        <v>10.87090330468707</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.15967815136193</v>
+        <v>24.87750126637849</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.29268533783587</v>
+        <v>20.0737532458324</v>
       </c>
       <c r="C18">
-        <v>12.54569495630539</v>
+        <v>8.659499167034905</v>
       </c>
       <c r="D18">
-        <v>8.377770316271164</v>
+        <v>6.405522128710215</v>
       </c>
       <c r="E18">
-        <v>5.295428368889664</v>
+        <v>8.596837551446725</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.104995833234852</v>
+        <v>3.750747392326582</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.37880848629672</v>
+        <v>37.29934384639389</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.43377157458811</v>
+        <v>18.17147199892682</v>
       </c>
       <c r="L18">
-        <v>8.298077114743673</v>
+        <v>10.86590275347285</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.14978350291893</v>
+        <v>24.87713587691416</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.20603379148067</v>
+        <v>20.05616027220184</v>
       </c>
       <c r="C19">
-        <v>12.48527481253334</v>
+        <v>8.640683459438845</v>
       </c>
       <c r="D19">
-        <v>8.338350584534679</v>
+        <v>6.395557820703147</v>
       </c>
       <c r="E19">
-        <v>5.289836629319482</v>
+        <v>8.597498785000088</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.10591704418576</v>
+        <v>3.751034626256422</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.31547116319586</v>
+        <v>37.28982977240251</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.36186520331876</v>
+        <v>18.15797433352736</v>
       </c>
       <c r="L19">
-        <v>8.277206369087946</v>
+        <v>10.86424455657739</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.14656969955636</v>
+        <v>24.87704162821113</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.59482139130725</v>
+        <v>20.1355825170615</v>
       </c>
       <c r="C20">
-        <v>12.75595997945195</v>
+        <v>8.725199596404922</v>
       </c>
       <c r="D20">
-        <v>8.514844714124173</v>
+        <v>6.440400136025606</v>
       </c>
       <c r="E20">
-        <v>5.315180937805581</v>
+        <v>8.594602594962373</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.101775713745464</v>
+        <v>3.749749638821477</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.6014574892815</v>
+        <v>37.33301492015703</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.68468574490699</v>
+        <v>18.21895871873445</v>
       </c>
       <c r="L20">
-        <v>8.371259030720465</v>
+        <v>10.87184535612329</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.16157494891456</v>
+        <v>24.87758288977954</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.89375714866036</v>
+        <v>20.40661500029746</v>
       </c>
       <c r="C21">
-        <v>13.64488011257636</v>
+        <v>9.006136391661014</v>
       </c>
       <c r="D21">
-        <v>9.09250973067744</v>
+        <v>6.590944623963119</v>
       </c>
       <c r="E21">
-        <v>5.403549121429734</v>
+        <v>8.586260677162086</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.087917485014725</v>
+        <v>3.745564762839339</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.57959047730504</v>
+        <v>37.4845504236335</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.92721576860606</v>
+        <v>18.42796104939918</v>
       </c>
       <c r="L21">
-        <v>8.689561684353551</v>
+        <v>10.89980001153883</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.22194635648827</v>
+        <v>24.88145214820886</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80687249372102</v>
+        <v>20.58659630246345</v>
       </c>
       <c r="C22">
-        <v>14.2114077269939</v>
+        <v>9.187161064215688</v>
       </c>
       <c r="D22">
-        <v>9.459139272822616</v>
+        <v>6.68906591174446</v>
       </c>
       <c r="E22">
-        <v>5.463765118131011</v>
+        <v>8.581842310140171</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.078878944741352</v>
+        <v>3.742927923826829</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.23235395239797</v>
+        <v>37.58832463163818</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.74017790440032</v>
+        <v>18.56742241186448</v>
       </c>
       <c r="L22">
-        <v>8.899327746921852</v>
+        <v>10.91985745495799</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.26941231425877</v>
+        <v>24.88551025523592</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.32166133406459</v>
+        <v>20.49029409928982</v>
       </c>
       <c r="C23">
-        <v>13.91030139062037</v>
+        <v>9.09080141819976</v>
       </c>
       <c r="D23">
-        <v>9.264425116890749</v>
+        <v>6.636732535155867</v>
       </c>
       <c r="E23">
-        <v>5.431396778981873</v>
+        <v>8.584106013557777</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083702865167668</v>
+        <v>3.744326301900405</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.88267963102926</v>
+        <v>37.53250911313006</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.3083024069662</v>
+        <v>18.4927394462653</v>
       </c>
       <c r="L23">
-        <v>8.787209037965754</v>
+        <v>10.90898981502253</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.24330597803159</v>
+        <v>24.88320438353225</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.57354693839997</v>
+        <v>20.13120459286178</v>
       </c>
       <c r="C24">
-        <v>12.74117461742689</v>
+        <v>8.720568884000809</v>
       </c>
       <c r="D24">
-        <v>8.505211426072343</v>
+        <v>6.437937594108976</v>
       </c>
       <c r="E24">
-        <v>5.313777210474334</v>
+        <v>8.59475641104479</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.102002869492047</v>
+        <v>3.74981970432209</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.5856889328562</v>
+        <v>37.3306190210435</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.6670083951019</v>
+        <v>18.21559382854515</v>
       </c>
       <c r="L24">
-        <v>8.366085436832352</v>
+        <v>10.87141883015907</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.16071489918543</v>
+        <v>24.87754545403448</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.6820726097603</v>
+        <v>19.75784468698123</v>
       </c>
       <c r="C25">
-        <v>11.41269268098069</v>
+        <v>8.312317742654482</v>
       </c>
       <c r="D25">
-        <v>7.636205036103195</v>
+        <v>6.223531143743487</v>
       </c>
       <c r="E25">
-        <v>5.197069528826804</v>
+        <v>8.610691890689209</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.121966180637594</v>
+        <v>3.756170435846352</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.2409268919578</v>
+        <v>37.13357521376244</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.10154804967135</v>
+        <v>17.93018308473962</v>
       </c>
       <c r="L25">
-        <v>7.919287210209909</v>
+        <v>10.83865291799414</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.10233630132446</v>
+        <v>24.87800065292863</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.49677774085708</v>
+        <v>18.23457481000721</v>
       </c>
       <c r="C2">
-        <v>8.006696187756392</v>
+        <v>10.37224176361014</v>
       </c>
       <c r="D2">
-        <v>6.067008707835074</v>
+        <v>6.950016191799055</v>
       </c>
       <c r="E2">
-        <v>8.626259165873787</v>
+        <v>5.119472438791151</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.761216909668637</v>
+        <v>2.136997883721585</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.00665040959698</v>
+        <v>29.29448128319465</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.73292023895231</v>
+        <v>15.91310797983809</v>
       </c>
       <c r="L2">
-        <v>10.82127092317198</v>
+        <v>7.597150019601112</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.88396329244865</v>
+        <v>18.08215988029755</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.32935816687735</v>
+        <v>17.22133380956954</v>
       </c>
       <c r="C3">
-        <v>7.797926514967203</v>
+        <v>9.69549262916162</v>
       </c>
       <c r="D3">
-        <v>5.962468258102314</v>
+        <v>6.454618486181247</v>
       </c>
       <c r="E3">
-        <v>8.639204754926084</v>
+        <v>5.0719025124571</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.764870437854596</v>
+        <v>2.147452768264876</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.93209736109324</v>
+        <v>28.67944389241631</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.60785762403586</v>
+        <v>15.0872555824472</v>
       </c>
       <c r="L3">
-        <v>10.81372361085618</v>
+        <v>7.383579640687412</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.89150680294505</v>
+        <v>18.08113429638738</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.23152864541431</v>
+        <v>16.58450191847198</v>
       </c>
       <c r="C4">
-        <v>7.669471581198842</v>
+        <v>9.265682307839967</v>
       </c>
       <c r="D4">
-        <v>5.899276222638383</v>
+        <v>6.182354509877821</v>
       </c>
       <c r="E4">
-        <v>8.648336106577288</v>
+        <v>5.045112417441501</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.767229672399893</v>
+        <v>2.154021760517026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.89201518362711</v>
+        <v>28.31463932719373</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.53550469804664</v>
+        <v>14.57120259936236</v>
       </c>
       <c r="L4">
-        <v>10.81118369423664</v>
+        <v>7.255005176312677</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.89786352746364</v>
+        <v>18.08627305504255</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.19295131514418</v>
+        <v>16.32154329322203</v>
       </c>
       <c r="C5">
-        <v>7.617143538751435</v>
+        <v>9.087000812263625</v>
       </c>
       <c r="D5">
-        <v>5.873811676034959</v>
+        <v>6.070757808778116</v>
       </c>
       <c r="E5">
-        <v>8.652354780387183</v>
+        <v>5.034794955382781</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.768220347385175</v>
+        <v>2.156738690927511</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.87711855432887</v>
+        <v>28.16918724068586</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.50716184931671</v>
+        <v>14.35887067670462</v>
       </c>
       <c r="L5">
-        <v>10.81067609667224</v>
+        <v>7.203291242146609</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.90088736660482</v>
+        <v>18.0897527309213</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.18662454915604</v>
+        <v>16.27767979384518</v>
       </c>
       <c r="C6">
-        <v>7.608458195312032</v>
+        <v>9.057120195589249</v>
       </c>
       <c r="D6">
-        <v>5.869601676091388</v>
+        <v>6.052107413215466</v>
       </c>
       <c r="E6">
-        <v>8.653040055345333</v>
+        <v>5.033117720463153</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.76838661915145</v>
+        <v>2.157192318173871</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.87473192128057</v>
+        <v>28.14522834374812</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.50252520851809</v>
+        <v>14.32349758260581</v>
       </c>
       <c r="L6">
-        <v>10.81062368532181</v>
+        <v>7.194746477456551</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.90141563970197</v>
+        <v>18.09041239457233</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.23100310807154</v>
+        <v>16.58096913321432</v>
       </c>
       <c r="C7">
-        <v>7.668765676347943</v>
+        <v>9.263286732203817</v>
       </c>
       <c r="D7">
-        <v>5.898931590312362</v>
+        <v>6.180857571702782</v>
       </c>
       <c r="E7">
-        <v>8.648389098736363</v>
+        <v>5.04497085551577</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.767242914340293</v>
+        <v>2.154058236957055</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.89180845711666</v>
+        <v>28.31266473945998</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.53511780152862</v>
+        <v>14.56834693221744</v>
       </c>
       <c r="L7">
-        <v>10.81117471212938</v>
+        <v>7.254304934121467</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.89790255367391</v>
+        <v>18.0863144557472</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.43804544604204</v>
+        <v>17.88839077808745</v>
       </c>
       <c r="C8">
-        <v>7.934819017537318</v>
+        <v>10.14188869167173</v>
       </c>
       <c r="D8">
-        <v>6.030778198724686</v>
+        <v>6.782364575765272</v>
       </c>
       <c r="E8">
-        <v>8.630477444763834</v>
+        <v>5.102563526144981</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.762452646582763</v>
+        <v>2.140573159132138</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.97976636443872</v>
+        <v>29.07974151138584</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.68889423470445</v>
+        <v>15.63033409376939</v>
       </c>
       <c r="L8">
-        <v>10.81823455804441</v>
+        <v>7.523001628987457</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.8862060797712</v>
+        <v>18.08056859068769</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.8815823254304</v>
+        <v>20.3278625513264</v>
       </c>
       <c r="C9">
-        <v>8.450805186543295</v>
+        <v>11.86969033043761</v>
       </c>
       <c r="D9">
-        <v>6.295636461799411</v>
+        <v>7.935924505089736</v>
       </c>
       <c r="E9">
-        <v>8.604728986235276</v>
+        <v>5.235062911471509</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.753973952035885</v>
+        <v>2.11519847916956</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.19714974540545</v>
+        <v>30.68697164612865</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.02440417090795</v>
+        <v>17.6345799183149</v>
       </c>
       <c r="L9">
-        <v>10.84864678242047</v>
+        <v>8.068776698175119</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.87697218102321</v>
+        <v>18.11823310202699</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.22765704658688</v>
+        <v>22.03832236345544</v>
       </c>
       <c r="C10">
-        <v>8.821872199680032</v>
+        <v>13.06353065974758</v>
       </c>
       <c r="D10">
-        <v>6.491953033422772</v>
+        <v>8.71505337669171</v>
       </c>
       <c r="E10">
-        <v>8.591516139161065</v>
+        <v>5.344880873001847</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.748295422338721</v>
+        <v>2.097025490839554</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.38380297191902</v>
+        <v>31.93326960764013</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.28981277681936</v>
+        <v>19.09127135970778</v>
       </c>
       <c r="L10">
-        <v>10.88100955207833</v>
+        <v>8.479804571017267</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.87856466934975</v>
+        <v>18.18053052051977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.38888091379192</v>
+        <v>22.80226134295782</v>
       </c>
       <c r="C11">
-        <v>8.988076075180759</v>
+        <v>13.58813980894638</v>
       </c>
       <c r="D11">
-        <v>6.58120152784191</v>
+        <v>9.055724827445308</v>
       </c>
       <c r="E11">
-        <v>8.586740946662562</v>
+        <v>5.397680940290487</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.745830201122763</v>
+        <v>2.088813889186194</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.47445370564081</v>
+        <v>32.51543691265707</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.41424691458913</v>
+        <v>19.84570198012561</v>
       </c>
       <c r="L11">
-        <v>10.89788410470316</v>
+        <v>8.6688359123817</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.88111230661305</v>
+        <v>18.21758028758644</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.4504254127393</v>
+        <v>23.11855580886921</v>
       </c>
       <c r="C12">
-        <v>9.050575152996828</v>
+        <v>13.78430568447976</v>
       </c>
       <c r="D12">
-        <v>6.614954599779884</v>
+        <v>9.182849175306952</v>
       </c>
       <c r="E12">
-        <v>8.585110033472935</v>
+        <v>5.418096363102419</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.744913534450253</v>
+        <v>2.085707943798423</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.50959492534092</v>
+        <v>32.738192906146</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.46186220994365</v>
+        <v>20.12744581434648</v>
       </c>
       <c r="L12">
-        <v>10.90458103980262</v>
+        <v>8.740714290654822</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.88233940742102</v>
+        <v>18.23297401212943</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.43714964689871</v>
+        <v>23.05061756791091</v>
       </c>
       <c r="C13">
-        <v>9.037135354558892</v>
+        <v>13.74216582865356</v>
       </c>
       <c r="D13">
-        <v>6.607687747352678</v>
+        <v>9.155552639060899</v>
       </c>
       <c r="E13">
-        <v>8.585453397348582</v>
+        <v>5.41368058616773</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.745110206872133</v>
+        <v>2.086376779321106</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.50199064194185</v>
+        <v>32.69011384878795</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.45158599728607</v>
+        <v>20.06693905882443</v>
       </c>
       <c r="L13">
-        <v>10.90312513031455</v>
+        <v>8.725220665852866</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.88206345797117</v>
+        <v>18.2295961435989</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.39393465092336</v>
+        <v>22.82836514063716</v>
       </c>
       <c r="C14">
-        <v>8.993227059971522</v>
+        <v>13.60432741712375</v>
       </c>
       <c r="D14">
-        <v>6.583979479738182</v>
+        <v>9.066220515033448</v>
       </c>
       <c r="E14">
-        <v>8.586603217968785</v>
+        <v>5.399352010474647</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.745754449122114</v>
+        <v>2.088558315712791</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.47732855741443</v>
+        <v>32.53371627200418</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.41815455257785</v>
+        <v>19.8689589702883</v>
       </c>
       <c r="L14">
-        <v>10.89842893083848</v>
+        <v>8.674743400528058</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.88120800181837</v>
+        <v>18.21881872651581</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.36752677893179</v>
+        <v>22.69897458636016</v>
       </c>
       <c r="C15">
-        <v>8.966272978428821</v>
+        <v>13.51957812243995</v>
       </c>
       <c r="D15">
-        <v>6.56945080891988</v>
+        <v>9.011260189906752</v>
       </c>
       <c r="E15">
-        <v>8.5873306028004</v>
+        <v>5.390630594479348</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.746151258548199</v>
+        <v>2.089894901445768</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.46232792513214</v>
+        <v>32.43822198474226</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.39774014896477</v>
+        <v>19.74718349263959</v>
       </c>
       <c r="L15">
-        <v>10.89559225829011</v>
+        <v>8.643863451348887</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.88071818282195</v>
+        <v>18.21239835666393</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.21719250297452</v>
+        <v>21.9882822359581</v>
       </c>
       <c r="C16">
-        <v>8.810952429879732</v>
+        <v>13.02888799804782</v>
       </c>
       <c r="D16">
-        <v>6.486116247515648</v>
+        <v>8.69252098226352</v>
       </c>
       <c r="E16">
-        <v>8.591853043747731</v>
+        <v>5.341488488307879</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.74845889523217</v>
+        <v>2.097562892554814</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.37799327357541</v>
+        <v>31.89553875794847</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.28175198965133</v>
+        <v>19.04140416272313</v>
       </c>
       <c r="L16">
-        <v>10.87994985794332</v>
+        <v>8.467492054389657</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.87843488027868</v>
+        <v>18.17829375005039</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.12590131342788</v>
+        <v>21.54775201912364</v>
       </c>
       <c r="C17">
-        <v>8.714955103381218</v>
+        <v>12.72324360477123</v>
       </c>
       <c r="D17">
-        <v>6.434953130722381</v>
+        <v>8.493527505129784</v>
       </c>
       <c r="E17">
-        <v>8.594943627617109</v>
+        <v>5.312077816660462</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.749904695862694</v>
+        <v>2.102278206623144</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.32771907140199</v>
+        <v>31.56658822151344</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.2115182125168</v>
+        <v>18.64557683736558</v>
       </c>
       <c r="L17">
-        <v>10.87090330468707</v>
+        <v>8.359816691289911</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.87750126637849</v>
+        <v>18.15967815136211</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.0737532458324</v>
+        <v>21.29268533783585</v>
       </c>
       <c r="C18">
-        <v>8.659499167034905</v>
+        <v>12.54569495630545</v>
       </c>
       <c r="D18">
-        <v>6.405522128710215</v>
+        <v>8.377770316271217</v>
       </c>
       <c r="E18">
-        <v>8.596837551446725</v>
+        <v>5.295428368889703</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.750747392326582</v>
+        <v>2.104995833234983</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.29934384639389</v>
+        <v>31.37880848629679</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.17147199892682</v>
+        <v>18.43377157458812</v>
       </c>
       <c r="L18">
-        <v>10.86590275347285</v>
+        <v>8.298077114743698</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.87713587691416</v>
+        <v>18.149783502919</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.05616027220184</v>
+        <v>21.20603379148066</v>
       </c>
       <c r="C19">
-        <v>8.640683459438845</v>
+        <v>12.48527481253342</v>
       </c>
       <c r="D19">
-        <v>6.395557820703147</v>
+        <v>8.33835058453467</v>
       </c>
       <c r="E19">
-        <v>8.597498785000088</v>
+        <v>5.289836629319526</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.751034626256422</v>
+        <v>2.10591704418575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.28982977240251</v>
+        <v>31.31547116319595</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.15797433352736</v>
+        <v>18.36186520331876</v>
       </c>
       <c r="L19">
-        <v>10.86424455657739</v>
+        <v>8.277206369087944</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.87704162821113</v>
+        <v>18.14656969955637</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.1355825170615</v>
+        <v>21.59482139130726</v>
       </c>
       <c r="C20">
-        <v>8.725199596404922</v>
+        <v>12.75595997945196</v>
       </c>
       <c r="D20">
-        <v>6.440400136025606</v>
+        <v>8.514844714124061</v>
       </c>
       <c r="E20">
-        <v>8.594602594962373</v>
+        <v>5.315180937805546</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.749749638821477</v>
+        <v>2.101775713745457</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.33301492015703</v>
+        <v>31.6014574892816</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.21895871873445</v>
+        <v>18.68468574490699</v>
       </c>
       <c r="L20">
-        <v>10.87184535612329</v>
+        <v>8.371259030720463</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.87758288977954</v>
+        <v>18.16157494891463</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.40661500029746</v>
+        <v>22.89375714866032</v>
       </c>
       <c r="C21">
-        <v>9.006136391661014</v>
+        <v>13.64488011257645</v>
       </c>
       <c r="D21">
-        <v>6.590944623963119</v>
+        <v>9.092509730677339</v>
       </c>
       <c r="E21">
-        <v>8.586260677162086</v>
+        <v>5.403549121429844</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.745564762839339</v>
+        <v>2.087917485014455</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.4845504236335</v>
+        <v>32.57959047730504</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.42796104939918</v>
+        <v>19.92721576860603</v>
       </c>
       <c r="L21">
-        <v>10.89980001153883</v>
+        <v>8.689561684353603</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.88145214820886</v>
+        <v>18.22194635648824</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.58659630246345</v>
+        <v>23.80687249372102</v>
       </c>
       <c r="C22">
-        <v>9.187161064215688</v>
+        <v>14.21140772699402</v>
       </c>
       <c r="D22">
-        <v>6.68906591174446</v>
+        <v>9.459139272822787</v>
       </c>
       <c r="E22">
-        <v>8.581842310140171</v>
+        <v>5.463765118131049</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.742927923826829</v>
+        <v>2.078878944741216</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.58832463163818</v>
+        <v>33.23235395239807</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.56742241186448</v>
+        <v>20.74017790440032</v>
       </c>
       <c r="L22">
-        <v>10.91985745495799</v>
+        <v>8.899327746921815</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.88551025523592</v>
+        <v>18.26941231425881</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.49029409928982</v>
+        <v>23.32166133406473</v>
       </c>
       <c r="C23">
-        <v>9.09080141819976</v>
+        <v>13.9103013906202</v>
       </c>
       <c r="D23">
-        <v>6.636732535155867</v>
+        <v>9.264425116890648</v>
       </c>
       <c r="E23">
-        <v>8.584106013557777</v>
+        <v>5.431396778981846</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.744326301900405</v>
+        <v>2.0837028651678</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.53250911313006</v>
+        <v>32.88267963102928</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.4927394462653</v>
+        <v>20.30830240696627</v>
       </c>
       <c r="L23">
-        <v>10.90898981502253</v>
+        <v>8.787209037965765</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.88320438353225</v>
+        <v>18.24330597803158</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.13120459286178</v>
+        <v>21.57354693839997</v>
       </c>
       <c r="C24">
-        <v>8.720568884000809</v>
+        <v>12.74117461742691</v>
       </c>
       <c r="D24">
-        <v>6.437937594108976</v>
+        <v>8.505211426072254</v>
       </c>
       <c r="E24">
-        <v>8.59475641104479</v>
+        <v>5.313777210474189</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.74981970432209</v>
+        <v>2.102002869492165</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.3306190210435</v>
+        <v>31.58568893285628</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.21559382854515</v>
+        <v>18.66700839510192</v>
       </c>
       <c r="L24">
-        <v>10.87141883015907</v>
+        <v>8.366085436832291</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.87754545403448</v>
+        <v>18.16071489918546</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.75784468698123</v>
+        <v>19.68207260976028</v>
       </c>
       <c r="C25">
-        <v>8.312317742654482</v>
+        <v>11.41269268098067</v>
       </c>
       <c r="D25">
-        <v>6.223531143743487</v>
+        <v>7.636205036103168</v>
       </c>
       <c r="E25">
-        <v>8.610691890689209</v>
+        <v>5.19706952882681</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.756170435846352</v>
+        <v>2.121966180637727</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.13357521376244</v>
+        <v>30.24092689195787</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.93018308473962</v>
+        <v>17.10154804967135</v>
       </c>
       <c r="L25">
-        <v>10.83865291799414</v>
+        <v>7.919287210209909</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.87800065292863</v>
+        <v>18.10233630132455</v>
       </c>
       <c r="O25">
         <v>0</v>
